--- a/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="138">
   <si>
     <t>土地坐落</t>
   </si>
@@ -301,6 +301,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>鴻海</t>
   </si>
   <si>
@@ -332,6 +341,9 @@
   </si>
   <si>
     <t>6，500</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
   </si>
   <si>
     <t>名稱</t>
@@ -879,13 +891,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -893,10 +905,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -907,10 +919,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -921,10 +933,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
@@ -935,10 +947,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -949,10 +961,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
@@ -2148,13 +2160,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
@@ -2173,13 +2185,22 @@
       <c r="G1" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -2196,13 +2217,22 @@
       <c r="G2" s="2">
         <v>11500</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -2219,13 +2249,22 @@
       <c r="G3" s="2">
         <v>25000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -2242,13 +2281,22 @@
       <c r="G4" s="2">
         <v>11500</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -2265,13 +2313,22 @@
       <c r="G5" s="2">
         <v>13000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -2288,13 +2345,22 @@
       <c r="G6" s="2">
         <v>28500</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2311,13 +2377,22 @@
       <c r="G7" s="2">
         <v>12600</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2334,13 +2409,22 @@
       <c r="G8" s="2">
         <v>25000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -2357,13 +2441,22 @@
       <c r="G9" s="2">
         <v>21500</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -2378,15 +2471,24 @@
         <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -2402,6 +2504,15 @@
       </c>
       <c r="G11" s="2">
         <v>41500</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1367</v>
       </c>
     </row>
   </sheetData>
@@ -2419,25 +2530,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>37</v>
@@ -2448,16 +2559,16 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F2" s="2">
         <v>8</v>
@@ -2477,16 +2588,16 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2">
         <v>8</v>
@@ -2516,19 +2627,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>37</v>
@@ -2539,7 +2650,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -2551,7 +2662,7 @@
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -2562,7 +2673,7 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -2585,7 +2696,7 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -2608,7 +2719,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -2631,7 +2742,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -2654,7 +2765,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2677,7 +2788,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2689,7 +2800,7 @@
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G8" s="2">
         <v>404</v>
@@ -2710,16 +2821,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2727,10 +2838,10 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>

--- a/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="140">
   <si>
     <t>土地坐落</t>
   </si>
@@ -301,6 +301,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -340,7 +343,10 @@
     <t>台積電</t>
   </si>
   <si>
-    <t>6，500</t>
+    <t>6500</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-05-01</t>
@@ -891,13 +897,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -905,10 +911,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -919,10 +925,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -933,10 +939,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
@@ -947,10 +953,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -961,10 +967,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
@@ -2160,13 +2166,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
@@ -2194,13 +2200,16 @@
       <c r="J1" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -2218,21 +2227,24 @@
         <v>11500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2">
+        <v>108</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -2250,21 +2262,24 @@
         <v>25000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2">
+        <v>108</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -2282,21 +2297,24 @@
         <v>11500</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2">
+        <v>108</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -2314,21 +2332,24 @@
         <v>13000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2">
+        <v>108</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -2346,21 +2367,24 @@
         <v>28500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="2">
+        <v>108</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2378,21 +2402,24 @@
         <v>12600</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="2">
+        <v>108</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2410,21 +2437,24 @@
         <v>25000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="2">
+        <v>108</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -2442,21 +2472,24 @@
         <v>21500</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="2">
+        <v>108</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -2471,24 +2504,27 @@
         <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="2">
+        <v>108</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2">
         <v>1367</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -2506,12 +2542,15 @@
         <v>41500</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="2">
+        <v>108</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2">
         <v>1367</v>
       </c>
     </row>
@@ -2530,25 +2569,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>37</v>
@@ -2559,16 +2598,16 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F2" s="2">
         <v>8</v>
@@ -2588,16 +2627,16 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2">
         <v>8</v>
@@ -2627,19 +2666,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>37</v>
@@ -2650,7 +2689,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -2662,7 +2701,7 @@
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -2673,7 +2712,7 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -2696,7 +2735,7 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -2719,7 +2758,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -2742,7 +2781,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -2765,7 +2804,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2788,7 +2827,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2800,7 +2839,7 @@
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G8" s="2">
         <v>404</v>
@@ -2821,16 +2860,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2838,10 +2877,10 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>

--- a/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="145">
   <si>
     <t>土地坐落</t>
   </si>
@@ -304,6 +304,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -313,6 +316,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>鴻海</t>
   </si>
   <si>
@@ -349,7 +358,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>tmp62651</t>
   </si>
   <si>
     <t>名稱</t>
@@ -897,13 +912,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -911,10 +926,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -925,10 +940,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -939,10 +954,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>28</v>
@@ -953,10 +968,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -967,10 +982,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
@@ -2166,13 +2181,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>86</v>
       </c>
@@ -2203,13 +2218,22 @@
       <c r="K1" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -2227,24 +2251,33 @@
         <v>11500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="2">
+        <v>112</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -2262,24 +2295,33 @@
         <v>25000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2">
+        <v>112</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -2297,24 +2339,33 @@
         <v>11500</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2">
+        <v>112</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -2332,24 +2383,33 @@
         <v>13000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2">
+        <v>112</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -2367,24 +2427,33 @@
         <v>28500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="2">
+        <v>112</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2402,24 +2471,33 @@
         <v>12600</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="2">
+        <v>112</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2437,24 +2515,33 @@
         <v>25000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="2">
+        <v>112</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -2472,24 +2559,33 @@
         <v>21500</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="2">
+        <v>112</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -2504,27 +2600,36 @@
         <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="2">
+        <v>112</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="2">
         <v>1367</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
@@ -2542,16 +2647,25 @@
         <v>41500</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="2">
+        <v>112</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="2">
         <v>1367</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="2">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2569,25 +2683,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>37</v>
@@ -2598,16 +2712,16 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2">
         <v>8</v>
@@ -2627,16 +2741,16 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F3" s="2">
         <v>8</v>
@@ -2666,19 +2780,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>37</v>
@@ -2689,7 +2803,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -2701,7 +2815,7 @@
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -2712,7 +2826,7 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -2735,7 +2849,7 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -2758,7 +2872,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -2781,7 +2895,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -2804,7 +2918,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2827,7 +2941,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -2839,7 +2953,7 @@
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G8" s="2">
         <v>404</v>
@@ -2860,16 +2974,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2877,10 +2991,10 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>

--- a/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
@@ -23,9 +23,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="145">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="147">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺南市善化區北子店段07410042地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區三村段07680000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之109</t>
+  </si>
+  <si>
+    <t>劉育菁</t>
+  </si>
+  <si>
+    <t>95年05月24日</t>
+  </si>
+  <si>
+    <t>(信託）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>黃偉哲</t>
+  </si>
+  <si>
+    <t>tmp62651</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -46,52 +124,28 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺南市善化區北子店段 0741-0042 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區三村段0768-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 109</t>
-  </si>
-  <si>
-    <t>劉育菁</t>
-  </si>
-  <si>
-    <t>95年05月 24日</t>
-  </si>
-  <si>
-    <t>(信託）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺南市善化區北子店段 00853-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市永康區三村段00591 -000 建號</t>
-  </si>
-  <si>
-    <t>臺南市永康區三村段00603-000 建號</t>
-  </si>
-  <si>
-    <t>95年05月 24闩</t>
-  </si>
-  <si>
-    <t>95年05月 23 H</t>
-  </si>
-  <si>
-    <t>95年05月 23日</t>
-  </si>
-  <si>
-    <t>超過5年（•筆 建物合購）</t>
-  </si>
-  <si>
-    <t>超過5年(二筆 建物合購）</t>
+    <t>臺南市善化區北子店段00853000建號</t>
+  </si>
+  <si>
+    <t>臺南市永康區三村段00591000建號</t>
+  </si>
+  <si>
+    <t>臺南市永康區三村段00603000建號</t>
+  </si>
+  <si>
+    <t>95年05月24闩</t>
+  </si>
+  <si>
+    <t>95年05月23H</t>
+  </si>
+  <si>
+    <t>95年05月23日</t>
+  </si>
+  <si>
+    <t>超過5年（筆建物合購）</t>
+  </si>
+  <si>
+    <t>超過5年(二筆建物合購）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -109,13 +163,10 @@
     <t>曰產</t>
   </si>
   <si>
-    <t>黃偉哲</t>
-  </si>
-  <si>
-    <t>98年01月 01日</t>
-  </si>
-  <si>
-    <t>96年06月 11闩</t>
+    <t>98年01月01日</t>
+  </si>
+  <si>
+    <t>96年06月11闩</t>
   </si>
   <si>
     <t>買賣</t>
@@ -130,10 +181,10 @@
     <t>國籍標示及編號</t>
   </si>
   <si>
-    <t>幣 別</t>
-  </si>
-  <si>
-    <t>外 幣 總 額</t>
+    <t>幣別</t>
+  </si>
+  <si>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -145,12 +196,6 @@
     <t>種類</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
@@ -166,13 +211,13 @@
     <t>京城商業銀行佳里分行</t>
   </si>
   <si>
-    <t>台新國際商業銀行建北分 行</t>
+    <t>台新國際商業銀行建北分行</t>
   </si>
   <si>
     <t>華南商業銀行營業部</t>
   </si>
   <si>
-    <t>匯豐（台灣)商業銀行嘉義 分行</t>
+    <t>匯豐（台灣)商業銀行嘉義分行</t>
   </si>
   <si>
     <t>永豐商業銀行南門分行</t>
@@ -181,7 +226,7 @@
     <t>安泰商業銀行嘉義分行</t>
   </si>
   <si>
-    <t>臺灣中小企業銀行台中分 行</t>
+    <t>臺灣中小企業銀行台中分行</t>
   </si>
   <si>
     <t>彰化商業銀行宜蘭分行</t>
@@ -199,25 +244,25 @@
     <t>臺灣上地銀行嘉義分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行安平分 行、永康分行</t>
+    <t>台北富邦商業銀行安平分行永康分行</t>
   </si>
   <si>
     <t>合作金庫商業銀行營業部</t>
   </si>
   <si>
-    <t>國泰世華商業銀行民權分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行嘉義分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行館前分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 北榮星</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司佳 里郵局</t>
+    <t>國泰世華商業銀行民權分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北榮星</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司佳里郵局</t>
   </si>
   <si>
     <t>臺灣銀行新營分行</t>
@@ -226,7 +271,7 @@
     <t>臺灣土地銀行信士分行</t>
   </si>
   <si>
-    <t>台新國際商業銀行府城分 行</t>
+    <t>台新國際商業銀行府城分行</t>
   </si>
   <si>
     <t>第一商業銀行虎尾分行</t>
@@ -238,16 +283,16 @@
     <t>京城商業銀行善化分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司新 竹西大郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司鹽 水郵局</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行永康分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行溪台南 分行</t>
+    <t>中華郵政股份有限公司新竹西大郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司鹽水郵局</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行永康分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行溪台南分行</t>
   </si>
   <si>
     <t>大眾商業銀行新營分行</t>
@@ -283,12 +328,6 @@
     <t>黃〇文</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -301,27 +340,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>鴻海</t>
   </si>
   <si>
@@ -358,15 +376,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-05-01</t>
-  </si>
-  <si>
-    <t>tmp62651</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -385,10 +394,10 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>三年期澳幣定 息</t>
-  </si>
-  <si>
-    <t>四年期美元定 息</t>
+    <t>三年期澳幣定息</t>
+  </si>
+  <si>
+    <t>四年期美元定息</t>
   </si>
   <si>
     <t>20FP000024</t>
@@ -397,9 +406,6 @@
     <t>20FP000023</t>
   </si>
   <si>
-    <t>大眾商業 銀行</t>
-  </si>
-  <si>
     <t>受託投資機構</t>
   </si>
   <si>
@@ -421,7 +427,7 @@
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/</t>
+    <t>項</t>
   </si>
   <si>
     <t>價</t>
@@ -816,13 +822,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,57 +850,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
         <v>2418600</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1483.91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2">
         <v>234532</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -912,13 +981,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -926,13 +995,13 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -940,13 +1009,13 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -954,13 +1023,13 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -968,13 +1037,13 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -982,13 +1051,13 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1006,25 +1075,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1032,22 +1101,22 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <v>156.4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
         <v>452400</v>
@@ -1058,25 +1127,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
         <v>84.22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1084,25 +1153,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <v>2774.84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1120,22 +1189,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1143,19 +1212,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>1999</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>14000</v>
@@ -1166,19 +1235,19 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>1995</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
@@ -1199,16 +1268,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1216,16 +1285,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1243,22 +1312,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1266,16 +1335,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1287,16 +1356,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1308,16 +1377,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2">
         <v>5259.53</v>
@@ -1331,16 +1400,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
         <v>13042.3</v>
@@ -1354,16 +1423,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1375,16 +1444,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1396,16 +1465,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1417,16 +1486,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1438,16 +1507,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1459,16 +1528,16 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1480,16 +1549,16 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1501,16 +1570,16 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1522,16 +1591,16 @@
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1543,16 +1612,16 @@
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1564,16 +1633,16 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1585,16 +1654,16 @@
         <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1606,16 +1675,16 @@
         <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2">
         <v>138.66</v>
@@ -1629,16 +1698,16 @@
         <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -1650,16 +1719,16 @@
         <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -1671,16 +1740,16 @@
         <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -1692,16 +1761,16 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1713,16 +1782,16 @@
         <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1734,16 +1803,16 @@
         <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -1755,16 +1824,16 @@
         <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -1776,16 +1845,16 @@
         <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -1797,16 +1866,16 @@
         <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -1818,16 +1887,16 @@
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -1839,16 +1908,16 @@
         <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -1860,16 +1929,16 @@
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
@@ -1881,16 +1950,16 @@
         <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
@@ -1902,16 +1971,16 @@
         <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
@@ -1923,16 +1992,16 @@
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2">
@@ -1944,16 +2013,16 @@
         <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2">
@@ -1965,16 +2034,16 @@
         <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
@@ -1986,16 +2055,16 @@
         <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2">
@@ -2007,16 +2076,16 @@
         <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2">
@@ -2028,16 +2097,16 @@
         <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2">
@@ -2049,16 +2118,16 @@
         <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2">
@@ -2070,16 +2139,16 @@
         <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2">
@@ -2091,16 +2160,16 @@
         <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2">
@@ -2112,16 +2181,16 @@
         <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F42" s="2">
         <v>433.99</v>
@@ -2135,16 +2204,16 @@
         <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F43" s="2">
         <v>5.6</v>
@@ -2158,16 +2227,16 @@
         <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2">
@@ -2189,43 +2258,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2233,10 +2302,10 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>1150</v>
@@ -2245,28 +2314,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2">
         <v>11500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L2" s="2">
         <v>1367</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
         <v>96</v>
@@ -2277,10 +2346,10 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>2500</v>
@@ -2289,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2">
         <v>25000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2">
         <v>1367</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2">
         <v>97</v>
@@ -2321,10 +2390,10 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>1150</v>
@@ -2333,28 +2402,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G4" s="2">
         <v>11500</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2">
         <v>1367</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2">
         <v>98</v>
@@ -2365,10 +2434,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>1300</v>
@@ -2377,28 +2446,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G5" s="2">
         <v>13000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L5" s="2">
         <v>1367</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2">
         <v>100</v>
@@ -2409,10 +2478,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>2850</v>
@@ -2421,28 +2490,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G6" s="2">
         <v>28500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
         <v>1367</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N6" s="2">
         <v>101</v>
@@ -2453,10 +2522,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>1260</v>
@@ -2465,28 +2534,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2">
         <v>12600</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L7" s="2">
         <v>1367</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N7" s="2">
         <v>102</v>
@@ -2497,10 +2566,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>2500</v>
@@ -2509,28 +2578,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2">
         <v>25000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L8" s="2">
         <v>1367</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N8" s="2">
         <v>103</v>
@@ -2541,10 +2610,10 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>2150</v>
@@ -2553,28 +2622,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G9" s="2">
         <v>21500</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L9" s="2">
         <v>1367</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N9" s="2">
         <v>104</v>
@@ -2585,10 +2654,10 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>650</v>
@@ -2597,28 +2666,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L10" s="2">
         <v>1367</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N10" s="2">
         <v>105</v>
@@ -2629,10 +2698,10 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
         <v>4150</v>
@@ -2641,28 +2710,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G11" s="2">
         <v>41500</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2">
         <v>1367</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="N11" s="2">
         <v>106</v>
@@ -2683,28 +2752,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2712,16 +2781,16 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2">
         <v>8</v>
@@ -2730,7 +2799,7 @@
         <v>1000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2">
         <v>282239</v>
@@ -2741,16 +2810,16 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2">
         <v>8</v>
@@ -2759,7 +2828,7 @@
         <v>1000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2">
         <v>241915</v>
@@ -2780,22 +2849,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2803,19 +2872,19 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -2826,19 +2895,19 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2">
         <v>10.6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2">
         <v>2412</v>
@@ -2849,19 +2918,19 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2">
         <v>6.77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G4" s="2">
         <v>3233</v>
@@ -2872,19 +2941,19 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2">
         <v>236.15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G5" s="2">
         <v>53730</v>
@@ -2895,19 +2964,19 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2">
         <v>149.82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G6" s="2">
         <v>4345</v>
@@ -2918,19 +2987,19 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2">
         <v>37.376</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G7" s="2">
         <v>1084</v>
@@ -2941,19 +3010,19 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2">
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G8" s="2">
         <v>404</v>
@@ -2974,16 +3043,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2991,13 +3060,13 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>127840</v>

--- a/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -67,64 +67,49 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺南市善化區北子店段07410042地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺南市永康區三村段07680000地號</t>
   </si>
   <si>
+    <t>10000分之109</t>
+  </si>
+  <si>
+    <t>劉育菁</t>
+  </si>
+  <si>
+    <t>95年05月24日</t>
+  </si>
+  <si>
+    <t>(信託）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>黃偉哲</t>
+  </si>
+  <si>
+    <t>tmp62651</t>
+  </si>
+  <si>
+    <t>臺南市善化區北子店段00853000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之109</t>
-  </si>
-  <si>
-    <t>劉育菁</t>
-  </si>
-  <si>
-    <t>95年05月24日</t>
-  </si>
-  <si>
-    <t>(信託）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-05-01</t>
-  </si>
-  <si>
-    <t>黃偉哲</t>
-  </si>
-  <si>
-    <t>tmp62651</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺南市善化區北子店段00853000建號</t>
+    <t>95年05月24闩</t>
   </si>
   <si>
     <t>臺南市永康區三村段00591000建號</t>
@@ -133,9 +118,6 @@
     <t>臺南市永康區三村段00603000建號</t>
   </si>
   <si>
-    <t>95年05月24闩</t>
-  </si>
-  <si>
     <t>95年05月23H</t>
   </si>
   <si>
@@ -148,57 +130,42 @@
     <t>超過5年(二筆建物合購）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>福特六和</t>
+  </si>
+  <si>
+    <t>98年01月01日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>曰產</t>
+  </si>
+  <si>
+    <t>96年06月11闩</t>
+  </si>
+  <si>
+    <t>幣別</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>福特六和</t>
-  </si>
-  <si>
-    <t>曰產</t>
-  </si>
-  <si>
-    <t>98年01月01日</t>
-  </si>
-  <si>
-    <t>96年06月11闩</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>製造廠名稱</t>
-  </si>
-  <si>
-    <t>國籍標示及編號</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
     <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣銀行城中分行</t>
   </si>
   <si>
@@ -301,9 +268,6 @@
     <t>大眾商業銀行台南分行</t>
   </si>
   <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
   </si>
   <si>
@@ -316,9 +280,6 @@
     <t>活期存政</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -337,12 +298,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>鴻海</t>
-  </si>
-  <si>
     <t>至上</t>
   </si>
   <si>
@@ -376,42 +331,24 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>三年期澳幣定息</t>
   </si>
   <si>
+    <t>20FP000024</t>
+  </si>
+  <si>
     <t>四年期美元定息</t>
   </si>
   <si>
-    <t>20FP000024</t>
-  </si>
-  <si>
     <t>20FP000023</t>
   </si>
   <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
     <t>新興歐歐元</t>
   </si>
   <si>
+    <t>歐元</t>
+  </si>
+  <si>
     <t>新能源美元</t>
   </si>
   <si>
@@ -421,40 +358,19 @@
     <t>坦全拉丁美</t>
   </si>
   <si>
-    <t>歐元</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行黃金存摺</t>
   </si>
   <si>
     <t>壹</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
+    <t>祥安終身壽險</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>祥安終身壽險</t>
   </si>
   <si>
     <t>美滿人生202終身</t>
@@ -822,13 +738,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,19 +787,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>87</v>
+        <v>1483.91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -895,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="2">
-        <v>2418600</v>
+        <v>234532</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>21</v>
@@ -916,54 +838,13 @@
         <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1483.91</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2">
-        <v>234532</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1367</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
+      <c r="P2" s="2">
+        <v>0.0109</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>16.174619</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +854,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -981,24 +862,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
@@ -1006,13 +887,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -1020,43 +901,29 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>141</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1067,7 +934,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1077,101 +944,75 @@
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>156.4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="H1" s="1">
+        <v>452400</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
-        <v>156.4</v>
+        <v>84.22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2">
-        <v>452400</v>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
-        <v>84.22</v>
+        <v>2774.84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2774.84</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1189,67 +1030,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1999</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="G1" s="1">
+        <v>14000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1995</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2">
         <v>100000</v>
       </c>
     </row>
@@ -1260,41 +1078,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1312,934 +1113,911 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>2130005</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>2130005</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>5259.53</v>
+      </c>
       <c r="G3" s="2">
-        <v>1200000</v>
+        <v>155182</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="2">
-        <v>5259.53</v>
+        <v>13042.3</v>
       </c>
       <c r="G4" s="2">
-        <v>155182</v>
+        <v>384813</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2">
-        <v>13042.3</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>384813</v>
+        <v>78245</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>78245</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>703</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>1265</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>82</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>1112</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>275</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>3233</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>12</v>
+        <v>811</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>811</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>2198</v>
+        <v>792</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>138.66</v>
+      </c>
       <c r="G17" s="2">
-        <v>792</v>
+        <v>4159.8</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="2">
-        <v>138.66</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>4159.8</v>
+        <v>2927584</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>2927584</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>701</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>539</v>
+        <v>116626</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>116626</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>26</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>475</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>3665</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
-        <v>1000</v>
+        <v>86748</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
-        <v>86748</v>
+        <v>266376</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
-        <v>266376</v>
+        <v>139553</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
-        <v>139553</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
-        <v>457</v>
+        <v>21955</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
-        <v>21955</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
-        <v>1611</v>
+        <v>854</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2">
-        <v>854</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2">
-        <v>388</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
-        <v>1698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2">
-        <v>1</v>
+        <v>133789</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
+        <v>83</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2">
-        <v>133789</v>
+        <v>892058</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2">
-        <v>892058</v>
+        <v>115166</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2">
-        <v>115166</v>
+        <v>9452</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2">
-        <v>9452</v>
+        <v>289341</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>433.99</v>
+      </c>
       <c r="G41" s="2">
-        <v>289341</v>
+        <v>14998.57</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="2">
-        <v>433.99</v>
+        <v>5.6</v>
       </c>
       <c r="G42" s="2">
-        <v>14998.57</v>
+        <v>165.98</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="2">
-        <v>5.6</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F43" s="2"/>
       <c r="G43" s="2">
-        <v>165.98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1">
-        <v>89</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2">
         <v>32469</v>
       </c>
     </row>
@@ -2250,7 +2028,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2264,16 +2042,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2299,28 +2077,28 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>1150</v>
+        <v>2500</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
-        <v>11500</v>
+        <v>25000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
@@ -2338,33 +2116,33 @@
         <v>25</v>
       </c>
       <c r="N2" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>2500</v>
+        <v>1150</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
-        <v>25000</v>
+        <v>11500</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>22</v>
@@ -2382,33 +2160,33 @@
         <v>25</v>
       </c>
       <c r="N3" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>1150</v>
+        <v>1300</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -2426,33 +2204,33 @@
         <v>25</v>
       </c>
       <c r="N4" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>1300</v>
+        <v>2850</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2">
-        <v>13000</v>
+        <v>28500</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -2470,33 +2248,33 @@
         <v>25</v>
       </c>
       <c r="N5" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>2850</v>
+        <v>1260</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2">
-        <v>28500</v>
+        <v>12600</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -2514,33 +2292,33 @@
         <v>25</v>
       </c>
       <c r="N6" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>1260</v>
+        <v>2500</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2">
-        <v>12600</v>
+        <v>25000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>22</v>
@@ -2558,33 +2336,33 @@
         <v>25</v>
       </c>
       <c r="N7" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>2500</v>
+        <v>2150</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
@@ -2602,33 +2380,33 @@
         <v>25</v>
       </c>
       <c r="N8" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>2150</v>
+        <v>650</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="2">
-        <v>21500</v>
+        <v>46</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
@@ -2646,33 +2424,33 @@
         <v>25</v>
       </c>
       <c r="N9" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>650</v>
+        <v>4150</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>115</v>
+        <v>46</v>
+      </c>
+      <c r="G10" s="2">
+        <v>41500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -2690,50 +2468,6 @@
         <v>25</v>
       </c>
       <c r="N10" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>106</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4150</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="2">
-        <v>41500</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1367</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="2">
         <v>106</v>
       </c>
     </row>
@@ -2744,7 +2478,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2752,45 +2486,45 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>59</v>
+      </c>
+      <c r="F1" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1000</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
+      </c>
+      <c r="I1" s="1">
+        <v>282239</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2">
         <v>8</v>
@@ -2799,38 +2533,9 @@
         <v>1000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2">
-        <v>282239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>112</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="2">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="2">
         <v>241915</v>
       </c>
     </row>
@@ -2841,7 +2546,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2849,182 +2554,159 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>59</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3446</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
-        <v>0.86</v>
+        <v>10.6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2">
-        <v>3446</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2">
-        <v>10.6</v>
+        <v>6.77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2">
-        <v>2412</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2">
-        <v>6.77</v>
+        <v>236.15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2">
-        <v>3233</v>
+        <v>53730</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2">
-        <v>236.15</v>
+        <v>149.82</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2">
-        <v>53730</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2">
-        <v>149.82</v>
+        <v>37.376</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G6" s="2">
-        <v>4345</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2">
-        <v>37.376</v>
+        <v>10.7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G7" s="2">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>123</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="2">
         <v>404</v>
       </c>
     </row>
@@ -3035,40 +2717,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>131</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1">
         <v>127840</v>
       </c>
     </row>

--- a/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -73,9 +73,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺南市善化區北子店段07410042地號</t>
+  </si>
+  <si>
     <t>臺南市永康區三村段07680000地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>10000分之109</t>
   </si>
   <si>
@@ -106,18 +112,15 @@
     <t>臺南市善化區北子店段00853000建號</t>
   </si>
   <si>
-    <t>全部</t>
+    <t>臺南市永康區三村段00591000建號</t>
+  </si>
+  <si>
+    <t>臺南市永康區三村段00603000建號</t>
   </si>
   <si>
     <t>95年05月24闩</t>
   </si>
   <si>
-    <t>臺南市永康區三村段00591000建號</t>
-  </si>
-  <si>
-    <t>臺南市永康區三村段00603000建號</t>
-  </si>
-  <si>
     <t>95年05月23H</t>
   </si>
   <si>
@@ -296,6 +299,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>鴻海</t>
   </si>
   <si>
     <t>至上</t>
@@ -738,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,54 +802,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1483.91</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2">
-        <v>234532</v>
+        <v>2418600</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2">
         <v>1367</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1483.91</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2">
+        <v>234532</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2">
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>0.0109</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>16.174619</v>
       </c>
     </row>
@@ -854,7 +913,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -862,18 +921,18 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>115</v>
@@ -882,49 +941,63 @@
         <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
+        <v>140</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>141</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
+      <c r="C6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -934,85 +1007,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2">
         <v>156.4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1">
-        <v>452400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2">
-        <v>84.22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2">
+        <v>452400</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2">
-        <v>2774.84</v>
+        <v>84.22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>84.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2774.84</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2774.84</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1030,19 +1237,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1">
         <v>1999</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1">
         <v>14000</v>
@@ -1050,24 +1257,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1999</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1995</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2">
-        <v>1995</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G3" s="2">
         <v>100000</v>
       </c>
     </row>
@@ -1078,24 +1308,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1352,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1113,16 +1360,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1131,349 +1378,347 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1200000</v>
+        <v>2130005</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5259.53</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>155182</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
-        <v>13042.3</v>
+        <v>5259.53</v>
       </c>
       <c r="G4" s="2">
-        <v>384813</v>
+        <v>155182</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="F5" s="2">
+        <v>13042.3</v>
+      </c>
       <c r="G5" s="2">
-        <v>78245</v>
+        <v>384813</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>703</v>
+        <v>78245</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>1265</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>71</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>1112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>275</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>3233</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>12</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>811</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>2198</v>
+        <v>811</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>792</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="2">
-        <v>138.66</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>4159.8</v>
+        <v>792</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>60</v>
@@ -1482,418 +1727,420 @@
         <v>83</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="F18" s="2">
+        <v>138.66</v>
+      </c>
       <c r="G18" s="2">
-        <v>2927584</v>
+        <v>4159.8</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>701</v>
+        <v>2927584</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>539</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>116626</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>26</v>
+        <v>116626</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>475</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>3665</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>1000</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
-        <v>86748</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
-        <v>266376</v>
+        <v>86748</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
-        <v>139553</v>
+        <v>266376</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
-        <v>457</v>
+        <v>139553</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2">
-        <v>21955</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2">
-        <v>1611</v>
+        <v>21955</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2">
-        <v>854</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2">
-        <v>388</v>
+        <v>854</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2">
-        <v>1698</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2">
-        <v>133789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2">
-        <v>892058</v>
+        <v>133789</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>77</v>
@@ -1902,122 +2149,143 @@
         <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2">
-        <v>115166</v>
+        <v>892058</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2">
-        <v>9452</v>
+        <v>115166</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2">
-        <v>289341</v>
+        <v>9452</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="2">
-        <v>433.99</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2">
-        <v>14998.57</v>
+        <v>289341</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2">
-        <v>5.6</v>
+        <v>433.99</v>
       </c>
       <c r="G42" s="2">
-        <v>165.98</v>
+        <v>14998.57</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1">
+        <v>88</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="G43" s="2">
+        <v>165.98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>89</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2">
+      <c r="B44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
         <v>32469</v>
       </c>
     </row>
@@ -2028,7 +2296,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2042,13 +2310,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2077,397 +2345,441 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>2500</v>
+        <v>1150</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
-        <v>25000</v>
+        <v>11500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>1367</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>1150</v>
+        <v>2500</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2">
-        <v>11500</v>
+        <v>25000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2">
         <v>1367</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>1300</v>
+        <v>1150</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2">
         <v>1367</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>2850</v>
+        <v>1300</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2">
-        <v>28500</v>
+        <v>13000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2">
         <v>1367</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N5" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>1260</v>
+        <v>2850</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2">
-        <v>12600</v>
+        <v>28500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2">
         <v>1367</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N6" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
-        <v>2500</v>
+        <v>1260</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2">
-        <v>25000</v>
+        <v>12600</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2">
         <v>1367</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N7" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
-        <v>2150</v>
+        <v>2500</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2">
         <v>1367</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N8" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>650</v>
+        <v>2150</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
+      </c>
+      <c r="G9" s="2">
+        <v>21500</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2">
         <v>1367</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N9" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
-        <v>4150</v>
+        <v>650</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="2">
-        <v>41500</v>
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10" s="2">
         <v>1367</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>106</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4150</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2">
+        <v>41500</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="2">
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1367</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="2">
         <v>106</v>
       </c>
     </row>
@@ -2478,7 +2790,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2486,16 +2798,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1">
         <v>8</v>
@@ -2504,7 +2816,7 @@
         <v>1000</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I1" s="1">
         <v>282239</v>
@@ -2512,7 +2824,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>104</v>
@@ -2521,10 +2833,10 @@
         <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2">
         <v>8</v>
@@ -2533,9 +2845,38 @@
         <v>1000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2">
+        <v>282239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>112</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="2">
         <v>241915</v>
       </c>
     </row>
@@ -2546,7 +2887,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2554,19 +2895,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1">
         <v>0.86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1">
         <v>3446</v>
@@ -2574,139 +2915,162 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
-        <v>10.6</v>
+        <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2">
-        <v>2412</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2">
-        <v>6.77</v>
+        <v>10.6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2">
-        <v>3233</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2">
-        <v>236.15</v>
+        <v>6.77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2">
-        <v>53730</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2">
-        <v>149.82</v>
+        <v>236.15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2">
-        <v>4345</v>
+        <v>53730</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2">
-        <v>37.376</v>
+        <v>149.82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="2">
-        <v>1084</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>122</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2">
+        <v>37.376</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>123</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="B8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2">
         <v>10.7</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="2">
         <v>404</v>
       </c>
     </row>
@@ -2717,23 +3081,40 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1">
+        <v>127840</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>131</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2">
         <v>127840</v>
       </c>
     </row>

--- a/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -133,19 +133,22 @@
     <t>超過5年(二筆建物合購）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>福特六和</t>
   </si>
   <si>
+    <t>曰產</t>
+  </si>
+  <si>
     <t>98年01月01日</t>
   </si>
   <si>
+    <t>96年06月11闩</t>
+  </si>
+  <si>
     <t>買賣</t>
-  </si>
-  <si>
-    <t>曰產</t>
-  </si>
-  <si>
-    <t>96年06月11闩</t>
   </si>
   <si>
     <t>幣別</t>
@@ -921,10 +924,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -935,10 +938,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -949,10 +952,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -963,10 +966,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -977,10 +980,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -991,10 +994,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -1229,38 +1232,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1">
-        <v>1999</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>1999</v>
@@ -1269,21 +1293,42 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>14000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>1995</v>
@@ -1295,10 +1340,31 @@
         <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1316,16 +1382,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1333,16 +1399,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1360,13 +1426,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -1381,13 +1447,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1402,13 +1468,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -1423,13 +1489,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1446,13 +1512,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -1469,13 +1535,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1490,13 +1556,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -1511,13 +1577,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -1532,13 +1598,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -1553,13 +1619,13 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1574,13 +1640,13 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1595,13 +1661,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -1616,13 +1682,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -1637,13 +1703,13 @@
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -1658,13 +1724,13 @@
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1679,13 +1745,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1700,13 +1766,13 @@
         <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -1721,13 +1787,13 @@
         <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -1744,13 +1810,13 @@
         <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
@@ -1765,13 +1831,13 @@
         <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>26</v>
@@ -1786,13 +1852,13 @@
         <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>26</v>
@@ -1807,13 +1873,13 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>26</v>
@@ -1828,13 +1894,13 @@
         <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>26</v>
@@ -1849,13 +1915,13 @@
         <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>26</v>
@@ -1870,13 +1936,13 @@
         <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>26</v>
@@ -1891,13 +1957,13 @@
         <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>26</v>
@@ -1912,13 +1978,13 @@
         <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>26</v>
@@ -1933,13 +1999,13 @@
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
@@ -1954,13 +2020,13 @@
         <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -1975,13 +2041,13 @@
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -1996,13 +2062,13 @@
         <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -2017,13 +2083,13 @@
         <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -2038,13 +2104,13 @@
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -2059,13 +2125,13 @@
         <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
@@ -2080,13 +2146,13 @@
         <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -2101,13 +2167,13 @@
         <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -2122,13 +2188,13 @@
         <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -2143,13 +2209,13 @@
         <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -2164,13 +2230,13 @@
         <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
@@ -2185,13 +2251,13 @@
         <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -2206,13 +2272,13 @@
         <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -2227,13 +2293,13 @@
         <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -2250,13 +2316,13 @@
         <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -2273,16 +2339,16 @@
         <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2">
@@ -2310,13 +2376,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2348,7 +2414,7 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2360,13 +2426,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>11500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -2392,7 +2458,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2404,13 +2470,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>25000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -2436,7 +2502,7 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2448,13 +2514,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
         <v>11500</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>24</v>
@@ -2480,7 +2546,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -2492,13 +2558,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2">
         <v>13000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -2524,7 +2590,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -2536,13 +2602,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2">
         <v>28500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
@@ -2568,7 +2634,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -2580,13 +2646,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2">
         <v>12600</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
@@ -2612,7 +2678,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -2624,13 +2690,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2">
         <v>25000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
@@ -2656,7 +2722,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -2668,13 +2734,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2">
         <v>21500</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
@@ -2700,7 +2766,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -2712,13 +2778,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
@@ -2744,7 +2810,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -2756,13 +2822,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2">
         <v>41500</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>24</v>
@@ -2798,16 +2864,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1">
         <v>8</v>
@@ -2816,7 +2882,7 @@
         <v>1000</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1">
         <v>282239</v>
@@ -2827,16 +2893,16 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2">
         <v>8</v>
@@ -2845,7 +2911,7 @@
         <v>1000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I2" s="2">
         <v>282239</v>
@@ -2856,16 +2922,16 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2">
         <v>8</v>
@@ -2874,7 +2940,7 @@
         <v>1000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2">
         <v>241915</v>
@@ -2895,19 +2961,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1">
         <v>0.86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1">
         <v>3446</v>
@@ -2918,19 +2984,19 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -2941,19 +3007,19 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
         <v>10.6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2">
         <v>2412</v>
@@ -2964,19 +3030,19 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2">
         <v>6.77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2">
         <v>3233</v>
@@ -2987,19 +3053,19 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2">
         <v>236.15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" s="2">
         <v>53730</v>
@@ -3010,19 +3076,19 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2">
         <v>149.82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G6" s="2">
         <v>4345</v>
@@ -3033,19 +3099,19 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2">
         <v>37.376</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7" s="2">
         <v>1084</v>
@@ -3056,19 +3122,19 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2">
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G8" s="2">
         <v>404</v>
@@ -3089,10 +3155,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -3106,10 +3172,10 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
@@ -10,20 +10,19 @@
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
-    <sheet name="航空器" sheetId="4" r:id="rId4"/>
-    <sheet name="存款" sheetId="5" r:id="rId5"/>
-    <sheet name="股票" sheetId="6" r:id="rId6"/>
-    <sheet name="債券" sheetId="7" r:id="rId7"/>
-    <sheet name="基金受益憑證" sheetId="8" r:id="rId8"/>
-    <sheet name="具有相當價值之財產" sheetId="9" r:id="rId9"/>
-    <sheet name="保險" sheetId="10" r:id="rId10"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="債券" sheetId="6" r:id="rId6"/>
+    <sheet name="基金受益憑證" sheetId="7" r:id="rId7"/>
+    <sheet name="具有相當價值之財產" sheetId="8" r:id="rId8"/>
+    <sheet name="保險" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -133,6 +132,9 @@
     <t>超過5年(二筆建物合購）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -151,16 +153,7 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -914,100 +907,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>136</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>137</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>139</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>140</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>141</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q4"/>
@@ -1092,7 +991,7 @@
         <v>452400</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>24</v>
@@ -1145,7 +1044,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>24</v>
@@ -1198,7 +1097,7 @@
         <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>24</v>
@@ -1243,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1284,7 +1183,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>1999</v>
@@ -1293,16 +1192,16 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>14000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -1328,7 +1227,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>1995</v>
@@ -1337,16 +1236,16 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2">
         <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -1373,50 +1272,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -1426,13 +1281,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -1447,13 +1302,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1468,13 +1323,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
@@ -1489,13 +1344,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
@@ -1512,13 +1367,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
@@ -1535,13 +1390,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
@@ -1556,13 +1411,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
@@ -1577,13 +1432,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
@@ -1598,13 +1453,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -1619,13 +1474,13 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
@@ -1640,13 +1495,13 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
@@ -1661,13 +1516,13 @@
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -1682,13 +1537,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
@@ -1703,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -1724,13 +1579,13 @@
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1745,13 +1600,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -1766,13 +1621,13 @@
         <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
@@ -1787,13 +1642,13 @@
         <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
@@ -1810,13 +1665,13 @@
         <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
@@ -1831,13 +1686,13 @@
         <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>26</v>
@@ -1852,13 +1707,13 @@
         <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>26</v>
@@ -1873,13 +1728,13 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>26</v>
@@ -1894,13 +1749,13 @@
         <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>26</v>
@@ -1915,13 +1770,13 @@
         <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>26</v>
@@ -1936,13 +1791,13 @@
         <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>26</v>
@@ -1957,13 +1812,13 @@
         <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>26</v>
@@ -1978,13 +1833,13 @@
         <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>26</v>
@@ -1999,13 +1854,13 @@
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
@@ -2020,13 +1875,13 @@
         <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -2041,13 +1896,13 @@
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -2062,13 +1917,13 @@
         <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -2083,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -2104,13 +1959,13 @@
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
@@ -2125,13 +1980,13 @@
         <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
@@ -2146,13 +2001,13 @@
         <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -2167,13 +2022,13 @@
         <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -2188,13 +2043,13 @@
         <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -2209,13 +2064,13 @@
         <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -2230,13 +2085,13 @@
         <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
@@ -2251,13 +2106,13 @@
         <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -2272,13 +2127,13 @@
         <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
@@ -2293,13 +2148,13 @@
         <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
@@ -2316,13 +2171,13 @@
         <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -2339,16 +2194,16 @@
         <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2">
@@ -2360,7 +2215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -2376,13 +2231,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2414,7 +2269,7 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2426,13 +2281,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
         <v>11500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -2458,7 +2313,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2470,13 +2325,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
         <v>25000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -2502,7 +2357,7 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2514,13 +2369,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2">
         <v>11500</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>24</v>
@@ -2546,7 +2401,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -2558,13 +2413,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2">
         <v>13000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -2590,7 +2445,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -2602,13 +2457,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2">
         <v>28500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
@@ -2634,7 +2489,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -2646,13 +2501,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2">
         <v>12600</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
@@ -2678,7 +2533,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -2690,13 +2545,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2">
         <v>25000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
@@ -2722,7 +2577,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -2734,13 +2589,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2">
         <v>21500</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
@@ -2766,7 +2621,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -2778,13 +2633,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
@@ -2810,7 +2665,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -2822,13 +2677,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2">
         <v>41500</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>24</v>
@@ -2854,7 +2709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -2864,16 +2719,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1">
         <v>8</v>
@@ -2882,7 +2737,7 @@
         <v>1000</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1">
         <v>282239</v>
@@ -2893,16 +2748,16 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2">
         <v>8</v>
@@ -2911,7 +2766,7 @@
         <v>1000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2">
         <v>282239</v>
@@ -2922,16 +2777,16 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2">
         <v>8</v>
@@ -2940,7 +2795,7 @@
         <v>1000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" s="2">
         <v>241915</v>
@@ -2951,7 +2806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2961,19 +2816,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1">
         <v>0.86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1">
         <v>3446</v>
@@ -2984,19 +2839,19 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -3007,19 +2862,19 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2">
         <v>10.6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2">
         <v>2412</v>
@@ -3030,19 +2885,19 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2">
         <v>6.77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2">
         <v>3233</v>
@@ -3053,19 +2908,19 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2">
         <v>236.15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2">
         <v>53730</v>
@@ -3076,19 +2931,19 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2">
         <v>149.82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G6" s="2">
         <v>4345</v>
@@ -3099,19 +2954,19 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2">
         <v>37.376</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G7" s="2">
         <v>1084</v>
@@ -3122,19 +2977,19 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2">
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G8" s="2">
         <v>404</v>
@@ -3145,7 +3000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3155,10 +3010,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -3172,6 +3027,47 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2">
+        <v>127840</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3180,8 +3076,61 @@
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2">
-        <v>127840</v>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>137</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>139</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>140</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>141</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -156,129 +156,138 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>臺灣銀行城中分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行新營分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行佳里分行</t>
+  </si>
+  <si>
+    <t>京城商業銀行佳里分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行建北分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行營業部</t>
+  </si>
+  <si>
+    <t>匯豐（台灣)商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行南門分行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行台中分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行宜蘭分行</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行東嘉義分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行新營分行</t>
+  </si>
+  <si>
+    <t>臺灣上地銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行安平分行永康分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行營業部</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行民權分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行嘉義分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行館前分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北榮星</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司佳里郵局</t>
+  </si>
+  <si>
+    <t>臺灣銀行新營分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行信士分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行府城分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行虎尾分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行新營分行</t>
+  </si>
+  <si>
+    <t>京城商業銀行善化分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司新竹西大郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司鹽水郵局</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行永康分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行溪台南分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行新營分行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行台南分行</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期存政</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行城中分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行新營分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行佳里分行</t>
-  </si>
-  <si>
-    <t>京城商業銀行佳里分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行建北分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行營業部</t>
-  </si>
-  <si>
-    <t>匯豐（台灣)商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行南門分行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行台中分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行宜蘭分行</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行東嘉義分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行新營分行</t>
-  </si>
-  <si>
-    <t>臺灣上地銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行安平分行永康分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行營業部</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行民權分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行嘉義分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行館前分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北榮星</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司佳里郵局</t>
-  </si>
-  <si>
-    <t>臺灣銀行新營分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行信士分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行府城分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行虎尾分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行新營分行</t>
-  </si>
-  <si>
-    <t>京城商業銀行善化分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司新竹西大郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司鹽水郵局</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行永康分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行溪台南分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行新營分行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行台南分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存政</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -288,13 +297,13 @@
     <t>黃〇文</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>鴻海</t>
@@ -1273,13 +1282,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1290,924 +1299,1794 @@
         <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>2130005</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2130005</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="2">
         <v>46</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>2130005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>1200000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2">
-        <v>5259.53</v>
-      </c>
-      <c r="G4" s="2">
         <v>155182</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="2">
-        <v>13042.3</v>
-      </c>
-      <c r="G5" s="2">
         <v>384813</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>78245</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>703</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1265</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>1112</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>275</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>3233</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>811</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>2198</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>792</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="2">
-        <v>138.66</v>
-      </c>
-      <c r="G18" s="2">
         <v>4159.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>2927584</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>701</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>539</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>116626</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23" s="2">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>68</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>475</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>3665</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="F26" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>86748</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
+      <c r="F28" s="2">
         <v>266376</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2">
+      <c r="F29" s="2">
         <v>139553</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2">
+      <c r="F30" s="2">
         <v>457</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2">
+      <c r="F31" s="2">
         <v>21955</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
+      <c r="F32" s="2">
         <v>1611</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2">
+      <c r="F33" s="2">
         <v>854</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2">
+      <c r="F34" s="2">
         <v>388</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
+      <c r="F35" s="2">
         <v>1698</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
+      <c r="F36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="2">
+        <v>133789</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="2">
         <v>82</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
-        <v>133789</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>83</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2">
+      <c r="F38" s="2">
         <v>892058</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="G38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2">
+      <c r="F39" s="2">
         <v>115166</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="G39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2">
+      <c r="F40" s="2">
         <v>9452</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="G40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2">
+      <c r="F41" s="2">
         <v>289341</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="G41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>87</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="2">
-        <v>433.99</v>
-      </c>
-      <c r="G42" s="2">
         <v>14998.57</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="G42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F43" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="G43" s="2">
         <v>165.98</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="G43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2">
+        <v>90</v>
+      </c>
+      <c r="F44" s="2">
         <v>32469</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1367</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="2">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2231,13 +3110,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2269,7 +3148,7 @@
         <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -2281,13 +3160,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2">
         <v>11500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -2313,7 +3192,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2325,13 +3204,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2">
         <v>25000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -2357,7 +3236,7 @@
         <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2369,13 +3248,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2">
         <v>11500</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>24</v>
@@ -2401,7 +3280,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -2413,13 +3292,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G5" s="2">
         <v>13000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -2445,7 +3324,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -2457,13 +3336,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G6" s="2">
         <v>28500</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
@@ -2489,7 +3368,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -2501,13 +3380,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G7" s="2">
         <v>12600</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>24</v>
@@ -2533,7 +3412,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -2545,13 +3424,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2">
         <v>25000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
@@ -2577,7 +3456,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -2589,13 +3468,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G9" s="2">
         <v>21500</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
@@ -2621,7 +3500,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -2633,13 +3512,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>24</v>
@@ -2665,7 +3544,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -2677,13 +3556,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G11" s="2">
         <v>41500</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>24</v>
@@ -2719,16 +3598,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1">
         <v>8</v>
@@ -2737,7 +3616,7 @@
         <v>1000</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1">
         <v>282239</v>
@@ -2748,16 +3627,16 @@
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2">
         <v>8</v>
@@ -2766,7 +3645,7 @@
         <v>1000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2">
         <v>282239</v>
@@ -2777,16 +3656,16 @@
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2">
         <v>8</v>
@@ -2795,7 +3674,7 @@
         <v>1000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I3" s="2">
         <v>241915</v>
@@ -2816,19 +3695,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1">
         <v>0.86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1">
         <v>3446</v>
@@ -2839,19 +3718,19 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2">
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -2862,19 +3741,19 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2">
         <v>10.6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2">
         <v>2412</v>
@@ -2885,19 +3764,19 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2">
         <v>6.77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2">
         <v>3233</v>
@@ -2908,19 +3787,19 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2">
         <v>236.15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2">
         <v>53730</v>
@@ -2931,19 +3810,19 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2">
         <v>149.82</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2">
         <v>4345</v>
@@ -2954,19 +3833,19 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2">
         <v>37.376</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2">
         <v>1084</v>
@@ -2977,19 +3856,19 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2">
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G8" s="2">
         <v>404</v>
@@ -3010,10 +3889,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -3027,10 +3906,10 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -3054,10 +3933,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -3068,10 +3947,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -3082,10 +3961,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -3096,10 +3975,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -3110,10 +3989,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -3124,10 +4003,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -342,16 +342,25 @@
     <t>stock</t>
   </si>
   <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>三年期澳幣定息</t>
   </si>
   <si>
+    <t>四年期美元定息</t>
+  </si>
+  <si>
     <t>20FP000024</t>
   </si>
   <si>
-    <t>四年期美元定息</t>
-  </si>
-  <si>
     <t>20FP000023</t>
+  </si>
+  <si>
+    <t>bonds</t>
   </si>
   <si>
     <t>新興歐歐元</t>
@@ -3590,47 +3599,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="1">
-        <v>282239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -3650,16 +3680,37 @@
       <c r="I2" s="2">
         <v>282239</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -3678,6 +3729,27 @@
       </c>
       <c r="I3" s="2">
         <v>241915</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="2">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3695,7 +3767,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -3707,7 +3779,7 @@
         <v>0.86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1">
         <v>3446</v>
@@ -3718,7 +3790,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -3730,7 +3802,7 @@
         <v>0.86</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2">
         <v>3446</v>
@@ -3741,7 +3813,7 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -3764,7 +3836,7 @@
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -3787,7 +3859,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -3810,7 +3882,7 @@
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -3833,7 +3905,7 @@
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -3856,7 +3928,7 @@
         <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -3868,7 +3940,7 @@
         <v>10.7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G8" s="2">
         <v>404</v>
@@ -3889,10 +3961,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -3906,10 +3978,10 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -3933,10 +4005,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -3947,10 +4019,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -3961,10 +4033,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -3975,10 +4047,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -3989,10 +4061,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -4003,10 +4075,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="128">
   <si>
     <t>name</t>
   </si>
@@ -366,22 +366,28 @@
     <t>新興歐歐元</t>
   </si>
   <si>
+    <t>新能源美元</t>
+  </si>
+  <si>
+    <t>世界金融美</t>
+  </si>
+  <si>
+    <t>坦全拉丁美</t>
+  </si>
+  <si>
     <t>歐元</t>
   </si>
   <si>
-    <t>新能源美元</t>
-  </si>
-  <si>
-    <t>世界金融美</t>
-  </si>
-  <si>
-    <t>坦全拉丁美</t>
+    <t>fund</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行黃金存摺</t>
   </si>
   <si>
     <t>壹</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>三商美邦人壽</t>
@@ -3759,33 +3765,57 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0.86</v>
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>93</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>117</v>
       </c>
@@ -3801,19 +3831,43 @@
       <c r="E2" s="2">
         <v>0.86</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="2">
         <v>3446</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -3824,19 +3878,43 @@
       <c r="E3" s="2">
         <v>10.6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>2412</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -3847,19 +3925,43 @@
       <c r="E4" s="2">
         <v>6.77</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>3233</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -3870,19 +3972,43 @@
       <c r="E5" s="2">
         <v>236.15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>53730</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -3893,19 +4019,43 @@
       <c r="E6" s="2">
         <v>149.82</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>4345</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -3916,14 +4066,38 @@
       <c r="E7" s="2">
         <v>37.376</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>1084</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>123</v>
       </c>
@@ -3939,11 +4113,35 @@
       <c r="E8" s="2">
         <v>10.7</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="2">
         <v>404</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1367</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="2">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3953,41 +4151,83 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1">
-        <v>127840</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="2">
         <v>127840</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4005,10 +4245,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>26</v>
@@ -4019,10 +4259,10 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -4033,10 +4273,10 @@
         <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -4047,10 +4287,10 @@
         <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -4061,10 +4301,10 @@
         <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -4075,10 +4315,10 @@
         <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>

--- a/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
+++ b/legislator/property/output/normal/黃偉哲_2012-05-01_財產申報表_tmp62651.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -387,18 +387,21 @@
     <t>壹</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>三商美邦人壽</t>
   </si>
   <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
     <t>祥安終身壽險</t>
   </si>
   <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
     <t>美滿人生202終身</t>
   </si>
   <si>
@@ -406,6 +409,9 @@
   </si>
   <si>
     <t>美意年年終身年金型保單</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -4237,38 +4243,80 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1367</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>137</v>
       </c>
@@ -4276,13 +4324,34 @@
         <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1367</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>139</v>
       </c>
@@ -4290,13 +4359,34 @@
         <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1367</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>140</v>
       </c>
@@ -4304,13 +4394,34 @@
         <v>124</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1367</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>141</v>
       </c>
@@ -4318,10 +4429,31 @@
         <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1367</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
